--- a/utilities/Excel_Sheets/Products/TLIE.xlsx
+++ b/utilities/Excel_Sheets/Products/TLIE.xlsx
@@ -45,9 +45,6 @@
     <t>Automation Test Agent</t>
   </si>
   <si>
-    <t>California</t>
-  </si>
-  <si>
     <t>Contract_Class</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>No_PCI_No_DQ</t>
+  </si>
+  <si>
+    <t>Texas</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -492,16 +492,16 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -510,40 +510,40 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43209</v>
+        <v>43266</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -564,23 +564,23 @@
     <row r="3" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>43209</v>
+        <v>43266</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -600,23 +600,23 @@
     </row>
     <row r="5" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="6">
         <f ca="1">TODAY()</f>
-        <v>43209</v>
+        <v>43266</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -636,23 +636,23 @@
     </row>
     <row r="6" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="6">
         <f ca="1">TODAY()</f>
-        <v>43209</v>
+        <v>43266</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
